--- a/figures/codes/table.xlsx
+++ b/figures/codes/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac9282ea4b1ae805/Documents/GitHub/tstrait-paper/Figure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac9282ea4b1ae805/Documents/GitHub/tstrait-paper/figures/codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{812039A5-D8D9-49E5-BDD9-0890189D0F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B0C2CA-D2EA-49CE-870D-400FA7055CF8}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{812039A5-D8D9-49E5-BDD9-0890189D0F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3B487D-32CF-4459-B5AD-E9C12D772E0F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{24689B4D-DC76-4E82-9D38-479E85D5AB11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24689B4D-DC76-4E82-9D38-479E85D5AB11}"/>
   </bookViews>
   <sheets>
     <sheet name="Genetic value" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Node</t>
   </si>
@@ -48,20 +48,115 @@
     <t>Genetic Value</t>
   </si>
   <si>
-    <t>Environmental Noise</t>
-  </si>
-  <si>
     <t>Phenotype</t>
   </si>
   <si>
     <t>▇▇</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Env. Noise</t>
+  </si>
+  <si>
+    <t>A|A</t>
+  </si>
+  <si>
+    <t>T|T</t>
+  </si>
+  <si>
+    <t>A|T</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>2  ▇▇</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>▇▇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ▇▇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>▇▇</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +190,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -134,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -149,6 +249,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -465,15 +568,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34BF6A-9ABD-4E96-A5B9-FB9DFA9A7AC5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
   </cols>
@@ -490,74 +593,74 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
-        <v>6</v>
+      <c r="A8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>-1</v>
@@ -567,8 +670,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>7</v>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>-1</v>
@@ -578,8 +681,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
-        <v>8</v>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>-1</v>
@@ -589,8 +692,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>9</v>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>-1</v>
@@ -600,8 +703,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3">
-        <v>10</v>
+      <c r="A12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>-1</v>
@@ -618,98 +721,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0160E6D3-620E-4EE6-9D1A-81CA911F4620}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.13</v>
       </c>
       <c r="E2" s="3">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.15</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.05</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>0.11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="C8" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
